--- a/src/test/resources/MasterTestData.xlsx
+++ b/src/test/resources/MasterTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10710" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="com.adactin.hotelapp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>Login</t>
   </si>
@@ -159,9 +159,6 @@
     <t>OrderSearch</t>
   </si>
   <si>
-    <t>reyaz0203</t>
-  </si>
-  <si>
     <t>reyaz123</t>
   </si>
   <si>
@@ -169,6 +166,63 @@
   </si>
   <si>
     <t>reyaz1122</t>
+  </si>
+  <si>
+    <t>Adactin.com - Hotel Reservation System</t>
+  </si>
+  <si>
+    <t>Adactin.com - Search Hotel</t>
+  </si>
+  <si>
+    <t>reyaz0310</t>
+  </si>
+  <si>
+    <t>TC - 102</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>roomType</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>noOfRooms</t>
+  </si>
+  <si>
+    <t>1 - One</t>
+  </si>
+  <si>
+    <t>checkInDate</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>checkOutDate</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>adultsPerRoom</t>
+  </si>
+  <si>
+    <t>childernPerRoom</t>
+  </si>
+  <si>
+    <t>0 - None</t>
+  </si>
+  <si>
+    <t>TC-103</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
   </si>
 </sst>
 </file>
@@ -204,9 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,12 +589,14 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.140625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -556,10 +615,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -567,10 +629,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -578,10 +643,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -589,10 +657,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -791,7 +862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -799,7 +870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -807,7 +878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -815,7 +886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -823,12 +894,152 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
